--- a/financialia/chatbot/Preguntas_Chatbot_Financiero.xlsx
+++ b/financialia/chatbot/Preguntas_Chatbot_Financiero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\financialia\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF431387-C6F0-43A7-A576-C84B5281390C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B229AE08-85C1-416E-8FE8-7F031D121C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Pregunta</t>
   </si>
@@ -55,12 +55,6 @@
     <t>¿Puedo recibir alertas si el modelo detecta una señal importante?</t>
   </si>
   <si>
-    <t>Según el modelo, el retorno estimado para esta semana es de aproximadamente X%. Recuerda que es una predicción basada en datos históricos y no garantiza resultados futuros.</t>
-  </si>
-  <si>
-    <t>El modelo tiene un error promedio (RMSE) de Y%. Es útil como referencia, pero siempre debes considerar otros factores al invertir.</t>
-  </si>
-  <si>
     <t>Actualmente, el modelo predice una tendencia {alcista/bajista} para el corto plazo, con una probabilidad del Z% basada en las variables analizadas.</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>Es el cambio esperado en el valor del S&amp;P500 o la accion que elijas en el periodo pronosticado.</t>
   </si>
   <si>
-    <t xml:space="preserve">El retorno será de [Llamar al modelo] </t>
-  </si>
-  <si>
     <t>Los X que tengas sumatoria de retornos más altas</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
     <t>Hola, soy un chatbot financiero, en qué te puedo ayudar?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Cuál es el retorno esperado del S&amp;P500 ? </t>
-  </si>
-  <si>
     <t>Gracias</t>
   </si>
   <si>
@@ -142,10 +130,7 @@
     <t>Dame las mejores compañias para invertir.</t>
   </si>
   <si>
-    <t>¿Cuál sera el pronostico para google?</t>
-  </si>
-  <si>
-    <t>¿Cuál sera el pronostico para nvidea?</t>
+    <t>El modelo tiene un error promedio de 0.5% Es útil como referencia, pero siempre debes considerar otros factores al invertir.</t>
   </si>
 </sst>
 </file>
@@ -520,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +520,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -549,10 +534,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -560,10 +545,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -571,109 +556,109 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -681,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
@@ -692,65 +677,32 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/financialia/chatbot/Preguntas_Chatbot_Financiero.xlsx
+++ b/financialia/chatbot/Preguntas_Chatbot_Financiero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\financialia\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B229AE08-85C1-416E-8FE8-7F031D121C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CF4002-89FD-45B0-A480-EDE70AC3ADC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Pregunta</t>
   </si>
@@ -46,30 +46,15 @@
     <t>¿Este modelo puede anticipar caídas fuertes del mercado?</t>
   </si>
   <si>
-    <t>¿Puedo consultar la predicción para fechas pasadas?</t>
-  </si>
-  <si>
-    <t>¿Puedo hacer backtesting con las predicciones?</t>
-  </si>
-  <si>
     <t>¿Puedo recibir alertas si el modelo detecta una señal importante?</t>
   </si>
   <si>
-    <t>Actualmente, el modelo predice una tendencia {alcista/bajista} para el corto plazo, con una probabilidad del Z% basada en las variables analizadas.</t>
-  </si>
-  <si>
     <t>Puedes usarla como una herramienta de apoyo, pero no como único criterio. Las decisiones de inversión deben considerar tu perfil de riesgo y otras variables del mercado.</t>
   </si>
   <si>
-    <t>Sí, puedes preguntar por predicciones pasadas y compararlas con lo que realmente ocurrió.</t>
-  </si>
-  <si>
     <t>En esta versión no está habilitado, pero es una funcionalidad que estamos evaluando implementar.</t>
   </si>
   <si>
-    <t>¿El mercado sugiere una tendencia alcista o bajista?</t>
-  </si>
-  <si>
     <t>El modelo utiliza variables como tasas de interés, inflación, índice del dólar, datos de empleo, indicadores técnicos, y otros indicadores financieros altamente correlacionados con el S&amp;P500.</t>
   </si>
   <si>
@@ -79,15 +64,6 @@
     <t>¿Cómo se interpreta la predicción del modelo?</t>
   </si>
   <si>
-    <t>Si, tenemos disponibles las predicciones anteriores y los datos reales para que puedas comparar el rendimiento histórico del modelo.</t>
-  </si>
-  <si>
-    <t>[Dependiendo de los retornos ver si la compañía es alcista o bajista, negativo bajista, positivo alcista]</t>
-  </si>
-  <si>
-    <t>¿Qué compañias tienen una tendencia alcista o bajista para X día?</t>
-  </si>
-  <si>
     <t>informativo</t>
   </si>
   <si>
@@ -97,21 +73,6 @@
     <t>Es el cambio esperado en el valor del S&amp;P500 o la accion que elijas en el periodo pronosticado.</t>
   </si>
   <si>
-    <t>Los X que tengas sumatoria de retornos más altas</t>
-  </si>
-  <si>
-    <t>Dame las compañias menos restables para invertir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las X compañias con retornos más bajos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organizame las compañias de menor a mayor en terminos retornos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordenar las compañias desde los retornos más bajos a los restornos más altos </t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
@@ -127,10 +88,19 @@
     <t>Con gusto estoy aquí para atenderte</t>
   </si>
   <si>
-    <t>Dame las mejores compañias para invertir.</t>
-  </si>
-  <si>
     <t>El modelo tiene un error promedio de 0.5% Es útil como referencia, pero siempre debes considerar otros factores al invertir.</t>
+  </si>
+  <si>
+    <t>Estoy interesado en invertir en indices bursatiles</t>
+  </si>
+  <si>
+    <t>Genial!                                                                                                                                                                                                               Si buscas invertir en indices bursatiles el S&amp;P500 es un excelente opción, ya que incluye algunas de las empresas más grandes del mundo, como Google (Alphabet), Apple, Amazon, Microsoft y Tesla. Al invertir en este índice, puedes obtener exposición a estos gigantes tecnológicos, lo que proporciona una opción diversificada y potencialmente rentable a largo plazo</t>
+  </si>
+  <si>
+    <t>Sí, puedo realizar predicciones futuras. Si lo deseas, puedo proporcionarte pronósticos de retornos y precios del S&amp;P500, así como de empresas como Google (Alphabet), Apple, Amazon, Microsoft y Tesla.</t>
+  </si>
+  <si>
+    <t>Interesante, y puedes realizar predicciones futuras?</t>
   </si>
 </sst>
 </file>
@@ -195,12 +165,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,22 +478,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.44140625" customWidth="1"/>
-    <col min="2" max="2" width="66.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" customWidth="1"/>
+    <col min="2" max="2" width="77.109375" customWidth="1"/>
+    <col min="3" max="3" width="89.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -537,59 +510,59 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -597,112 +570,51 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
